--- a/flows/HGER_fund_flow_data.xlsx
+++ b/flows/HGER_fund_flow_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B513"/>
+  <dimension ref="A1:B531"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5565,6 +5565,186 @@
         <v>0</v>
       </c>
     </row>
+    <row r="514">
+      <c r="A514" t="inlineStr">
+        <is>
+          <t>2024-02-21</t>
+        </is>
+      </c>
+      <c r="B514" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="515">
+      <c r="A515" t="inlineStr">
+        <is>
+          <t>2024-02-22</t>
+        </is>
+      </c>
+      <c r="B515" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="516">
+      <c r="A516" t="inlineStr">
+        <is>
+          <t>2024-02-23</t>
+        </is>
+      </c>
+      <c r="B516" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="517">
+      <c r="A517" t="inlineStr">
+        <is>
+          <t>2024-02-26</t>
+        </is>
+      </c>
+      <c r="B517" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="518">
+      <c r="A518" t="inlineStr">
+        <is>
+          <t>2024-02-27</t>
+        </is>
+      </c>
+      <c r="B518" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="519">
+      <c r="A519" t="inlineStr">
+        <is>
+          <t>2024-02-28</t>
+        </is>
+      </c>
+      <c r="B519" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="520">
+      <c r="A520" t="inlineStr">
+        <is>
+          <t>2024-02-29</t>
+        </is>
+      </c>
+      <c r="B520" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="521">
+      <c r="A521" t="inlineStr">
+        <is>
+          <t>2024-03-01</t>
+        </is>
+      </c>
+      <c r="B521" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="522">
+      <c r="A522" t="inlineStr">
+        <is>
+          <t>2024-03-04</t>
+        </is>
+      </c>
+      <c r="B522" t="n">
+        <v>-1.59375</v>
+      </c>
+    </row>
+    <row r="523">
+      <c r="A523" t="inlineStr">
+        <is>
+          <t>2024-03-05</t>
+        </is>
+      </c>
+      <c r="B523" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="524">
+      <c r="A524" t="inlineStr">
+        <is>
+          <t>2024-03-06</t>
+        </is>
+      </c>
+      <c r="B524" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="525">
+      <c r="A525" t="inlineStr">
+        <is>
+          <t>2024-03-07</t>
+        </is>
+      </c>
+      <c r="B525" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="526">
+      <c r="A526" t="inlineStr">
+        <is>
+          <t>2024-03-08</t>
+        </is>
+      </c>
+      <c r="B526" t="n">
+        <v>1.61775</v>
+      </c>
+    </row>
+    <row r="527">
+      <c r="A527" t="inlineStr">
+        <is>
+          <t>2024-03-11</t>
+        </is>
+      </c>
+      <c r="B527" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="528">
+      <c r="A528" t="inlineStr">
+        <is>
+          <t>2024-03-12</t>
+        </is>
+      </c>
+      <c r="B528" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="529">
+      <c r="A529" t="inlineStr">
+        <is>
+          <t>2024-03-13</t>
+        </is>
+      </c>
+      <c r="B529" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="530">
+      <c r="A530" t="inlineStr">
+        <is>
+          <t>2024-03-14</t>
+        </is>
+      </c>
+      <c r="B530" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="531">
+      <c r="A531" t="inlineStr">
+        <is>
+          <t>2024-03-15</t>
+        </is>
+      </c>
+      <c r="B531" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
